--- a/data/input/employee_absence_data_2.xlsx
+++ b/data/input/employee_absence_data_2.xlsx
@@ -464,69 +464,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>86314</v>
+        <v>39562</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amanda das Neves</t>
+          <t>Ryan Borges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45083</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>6071.33</v>
+        <v>5477.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6398</v>
+        <v>66860</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Benjamin Rezende</t>
+          <t>Ana Sophia Vasconcelos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45088</v>
+        <v>45087</v>
       </c>
       <c r="G3" t="n">
-        <v>11514.46</v>
+        <v>4049.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97884</v>
+        <v>24169</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amanda Barros</t>
+          <t>Sr. André Borges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -536,220 +536,220 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45098</v>
+        <v>45079</v>
       </c>
       <c r="G4" t="n">
-        <v>8632.540000000001</v>
+        <v>7124.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3491</v>
+        <v>85556</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Isaac Barros</t>
+          <t>João Lucas da Conceição</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45085</v>
+        <v>45105</v>
       </c>
       <c r="G5" t="n">
-        <v>9019.309999999999</v>
+        <v>5721.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18841</v>
+        <v>39264</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Leonardo Novais</t>
+          <t>Maria Julia Nunes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45084</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>9064.360000000001</v>
+        <v>4191.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>86053</v>
+        <v>76874</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Allana Cunha</t>
+          <t>Matheus Câmara</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45095</v>
+        <v>45092</v>
       </c>
       <c r="G7" t="n">
-        <v>5689.81</v>
+        <v>8904.58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>34959</v>
+        <v>45321</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lara Borges</t>
+          <t>Rhavi Rios</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45102</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>11214.52</v>
+        <v>5053.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>72486</v>
+        <v>63720</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Yasmin Andrade</t>
+          <t>Ryan Pinto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="G9" t="n">
-        <v>4676.9</v>
+        <v>6516.76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>85626</v>
+        <v>72006</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Benício Costela</t>
+          <t>Emanuelly Andrade</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45079</v>
+        <v>45095</v>
       </c>
       <c r="G10" t="n">
-        <v>8022.25</v>
+        <v>8372.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>55093</v>
+        <v>56880</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Valentina Monteiro</t>
+          <t>Maria Flor Azevedo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>9172.48</v>
+        <v>5902.88</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_2.xlsx
+++ b/data/input/employee_absence_data_2.xlsx
@@ -464,185 +464,185 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39562</v>
+        <v>32967</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ryan Borges</t>
+          <t>Srta. Sophia Ribeiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45087</v>
+        <v>45103</v>
       </c>
       <c r="G2" t="n">
-        <v>5477.6</v>
+        <v>5365.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>66860</v>
+        <v>52156</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Sophia Vasconcelos</t>
+          <t>Dra. Lívia Fogaça</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45087</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>4049.09</v>
+        <v>7740.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>24169</v>
+        <v>54564</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sr. André Borges</t>
+          <t>Leonardo Aparecida</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45079</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>7124.24</v>
+        <v>9267.540000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>85556</v>
+        <v>91634</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Lucas da Conceição</t>
+          <t>Miguel Farias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45105</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>5721.05</v>
+        <v>7542.93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>39264</v>
+        <v>68745</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maria Julia Nunes</t>
+          <t>Clara Vargas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>4191.4</v>
+        <v>3403.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>76874</v>
+        <v>6785</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Matheus Câmara</t>
+          <t>Juan da Mota</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45092</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>8904.58</v>
+        <v>3496.49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>45321</v>
+        <v>24376</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rhavi Rios</t>
+          <t>Gustavo Henrique Sampaio</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -652,60 +652,60 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45088</v>
+        <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>5053.27</v>
+        <v>9880.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>63720</v>
+        <v>33893</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ryan Pinto</t>
+          <t>Júlia Rodrigues</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45084</v>
+        <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>6516.76</v>
+        <v>2450.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>72006</v>
+        <v>84281</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Emanuelly Andrade</t>
+          <t>João Cardoso</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -714,22 +714,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45095</v>
+        <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>8372.34</v>
+        <v>4000.31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>56880</v>
+        <v>94483</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Flor Azevedo</t>
+          <t>Dr. Yan Mendonça</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45080</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>5902.88</v>
+        <v>6870.85</v>
       </c>
     </row>
   </sheetData>
